--- a/C01_GoogleInsight/Excel/GoogleInsights.xlsx
+++ b/C01_GoogleInsight/Excel/GoogleInsights.xlsx
@@ -1,25 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Harishankar\Workplace\C01_GoogleInsight\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView windowHeight="7755" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Google_Report" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="City" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Google_Report" r:id="rId1" sheetId="1"/>
+    <sheet name="City" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="98">
   <si>
     <t>Urls</t>
   </si>
@@ -321,15 +315,6 @@
   </si>
   <si>
     <t>Ahmedabad_W</t>
-  </si>
-  <si>
-    <t>hi</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>Harish</t>
   </si>
 </sst>
 </file>
@@ -383,7 +368,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +433,21 @@
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -500,1775 +500,1787 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="587">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="591">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="2" fillId="4" fontId="5" numFmtId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2285,10 +2297,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2323,7 +2335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2358,7 +2370,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2452,21 +2464,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2483,7 +2495,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2535,17 +2547,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2569,7 +2581,7 @@
     <col min="18" max="18" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row ht="18.75" r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2632,52 +2644,52 @@
       <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="161">
+      <c r="C2" t="n" s="587">
+        <v>90.0</v>
+      </c>
+      <c r="D2" t="n" s="588">
+        <v>89.0</v>
+      </c>
+      <c r="E2" t="n" s="589">
+        <v>93.0</v>
+      </c>
+      <c r="F2" t="n" s="590">
+        <v>90.0</v>
+      </c>
+      <c r="G2" s="161">
+        <v>82</v>
+      </c>
+      <c r="H2" s="162">
+        <v>87</v>
+      </c>
+      <c r="I2" s="163">
         <v>84</v>
       </c>
-      <c r="D2" s="162">
+      <c r="J2" s="164">
+        <v>88</v>
+      </c>
+      <c r="K2" s="165">
+        <v>79</v>
+      </c>
+      <c r="L2" s="166">
         <v>89</v>
       </c>
-      <c r="E2" s="163">
-        <v>75</v>
-      </c>
-      <c r="F2" s="164">
-        <v>87</v>
-      </c>
-      <c r="G2" s="165">
-        <v>82</v>
-      </c>
-      <c r="H2" s="166">
-        <v>87</v>
-      </c>
-      <c r="I2" s="167">
-        <v>84</v>
-      </c>
-      <c r="J2" s="168">
-        <v>88</v>
-      </c>
-      <c r="K2" s="169">
-        <v>79</v>
-      </c>
-      <c r="L2" s="170">
-        <v>89</v>
-      </c>
-      <c r="M2" s="171">
+      <c r="M2" s="167">
         <v>74</v>
       </c>
-      <c r="N2" s="172">
+      <c r="N2" s="168">
         <v>86</v>
       </c>
-      <c r="O2" s="173">
+      <c r="O2" s="169">
         <v>69</v>
       </c>
-      <c r="P2" s="174">
+      <c r="P2" s="170">
         <v>76</v>
       </c>
-      <c r="Q2" s="175">
+      <c r="Q2" s="171">
         <v>72</v>
       </c>
-      <c r="R2" s="176">
+      <c r="R2" s="172">
         <v>78</v>
       </c>
     </row>
@@ -2688,52 +2700,52 @@
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="177">
+      <c r="C3" s="173">
         <v>74</v>
       </c>
-      <c r="D3" s="178">
+      <c r="D3" s="174">
         <v>83</v>
       </c>
-      <c r="E3" s="179">
+      <c r="E3" s="175">
         <v>83</v>
       </c>
-      <c r="F3" s="180">
+      <c r="F3" s="176">
         <v>85</v>
       </c>
-      <c r="G3" s="181">
+      <c r="G3" s="177">
         <v>73</v>
       </c>
-      <c r="H3" s="182">
+      <c r="H3" s="178">
         <v>86</v>
       </c>
-      <c r="I3" s="183">
+      <c r="I3" s="179">
         <v>1</v>
       </c>
-      <c r="J3" s="184">
+      <c r="J3" s="180">
         <v>1</v>
       </c>
-      <c r="K3" s="185">
+      <c r="K3" s="181">
         <v>66</v>
       </c>
-      <c r="L3" s="186">
+      <c r="L3" s="182">
         <v>73</v>
       </c>
-      <c r="M3" s="187">
+      <c r="M3" s="183">
         <v>78</v>
       </c>
-      <c r="N3" s="188">
+      <c r="N3" s="184">
         <v>89</v>
       </c>
-      <c r="O3" s="189">
+      <c r="O3" s="185">
         <v>79</v>
       </c>
-      <c r="P3" s="190">
+      <c r="P3" s="186">
         <v>92</v>
       </c>
-      <c r="Q3" s="191">
+      <c r="Q3" s="187">
         <v>85</v>
       </c>
-      <c r="R3" s="192">
+      <c r="R3" s="188">
         <v>86</v>
       </c>
     </row>
@@ -2744,52 +2756,52 @@
       <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="193">
+      <c r="C4" s="189">
         <v>73</v>
       </c>
-      <c r="D4" s="194">
+      <c r="D4" s="190">
         <v>80</v>
       </c>
-      <c r="E4" s="195">
+      <c r="E4" s="191">
         <v>68</v>
       </c>
-      <c r="F4" s="196">
+      <c r="F4" s="192">
         <v>79</v>
       </c>
-      <c r="G4" s="197">
+      <c r="G4" s="193">
         <v>75</v>
       </c>
-      <c r="H4" s="198">
+      <c r="H4" s="194">
         <v>81</v>
       </c>
-      <c r="I4" s="199">
+      <c r="I4" s="195">
         <v>72</v>
       </c>
-      <c r="J4" s="200">
+      <c r="J4" s="196">
         <v>77</v>
       </c>
-      <c r="K4" s="201">
+      <c r="K4" s="197">
         <v>68</v>
       </c>
-      <c r="L4" s="202">
+      <c r="L4" s="198">
         <v>78</v>
       </c>
-      <c r="M4" s="203">
+      <c r="M4" s="199">
         <v>68</v>
       </c>
-      <c r="N4" s="204">
+      <c r="N4" s="200">
         <v>79</v>
       </c>
-      <c r="O4" s="205">
+      <c r="O4" s="201">
         <v>72</v>
       </c>
-      <c r="P4" s="206">
+      <c r="P4" s="202">
         <v>84</v>
       </c>
-      <c r="Q4" s="207">
+      <c r="Q4" s="203">
         <v>79</v>
       </c>
-      <c r="R4" s="208">
+      <c r="R4" s="204">
         <v>72</v>
       </c>
     </row>
@@ -2800,52 +2812,52 @@
       <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="209">
+      <c r="C5" s="205">
         <v>82</v>
       </c>
-      <c r="D5" s="210">
+      <c r="D5" s="206">
         <v>76</v>
       </c>
-      <c r="E5" s="211">
+      <c r="E5" s="207">
         <v>81</v>
       </c>
-      <c r="F5" s="212">
+      <c r="F5" s="208">
         <v>85</v>
       </c>
-      <c r="G5" s="213">
+      <c r="G5" s="209">
         <v>86</v>
       </c>
-      <c r="H5" s="214">
+      <c r="H5" s="210">
         <v>57</v>
       </c>
-      <c r="I5" s="215">
+      <c r="I5" s="211">
         <v>65</v>
       </c>
-      <c r="J5" s="216">
+      <c r="J5" s="212">
         <v>69</v>
       </c>
-      <c r="K5" s="217">
+      <c r="K5" s="213">
         <v>81</v>
       </c>
-      <c r="L5" s="218">
+      <c r="L5" s="214">
         <v>84</v>
       </c>
-      <c r="M5" s="219">
+      <c r="M5" s="215">
         <v>83</v>
       </c>
-      <c r="N5" s="220">
+      <c r="N5" s="216">
         <v>85</v>
       </c>
-      <c r="O5" s="221">
+      <c r="O5" s="217">
         <v>78</v>
       </c>
-      <c r="P5" s="222">
+      <c r="P5" s="218">
         <v>73</v>
       </c>
-      <c r="Q5" s="223">
+      <c r="Q5" s="219">
         <v>75</v>
       </c>
-      <c r="R5" s="224">
+      <c r="R5" s="220">
         <v>74</v>
       </c>
     </row>
@@ -2856,52 +2868,52 @@
       <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="225">
+      <c r="C6" s="221">
         <v>73</v>
       </c>
-      <c r="D6" s="226">
+      <c r="D6" s="222">
         <v>72</v>
       </c>
-      <c r="E6" s="227">
+      <c r="E6" s="223">
         <v>76</v>
       </c>
-      <c r="F6" s="228">
+      <c r="F6" s="224">
         <v>76</v>
       </c>
-      <c r="G6" s="229">
+      <c r="G6" s="225">
         <v>90</v>
       </c>
-      <c r="H6" s="230">
+      <c r="H6" s="226">
         <v>89</v>
       </c>
-      <c r="I6" s="231">
+      <c r="I6" s="227">
         <v>78</v>
       </c>
-      <c r="J6" s="232">
+      <c r="J6" s="228">
         <v>82</v>
       </c>
-      <c r="K6" s="233">
+      <c r="K6" s="229">
         <v>55</v>
       </c>
-      <c r="L6" s="234">
+      <c r="L6" s="230">
         <v>81</v>
       </c>
-      <c r="M6" s="235">
+      <c r="M6" s="231">
         <v>84</v>
       </c>
-      <c r="N6" s="236">
+      <c r="N6" s="232">
         <v>73</v>
       </c>
-      <c r="O6" s="237">
+      <c r="O6" s="233">
         <v>83</v>
       </c>
-      <c r="P6" s="238">
+      <c r="P6" s="234">
         <v>83</v>
       </c>
-      <c r="Q6" s="239">
+      <c r="Q6" s="235">
         <v>71</v>
       </c>
-      <c r="R6" s="240">
+      <c r="R6" s="236">
         <v>77</v>
       </c>
     </row>
@@ -2912,52 +2924,52 @@
       <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="241">
+      <c r="C7" s="237">
         <v>75</v>
       </c>
-      <c r="D7" s="242">
+      <c r="D7" s="238">
         <v>81</v>
       </c>
-      <c r="E7" s="243">
+      <c r="E7" s="239">
         <v>82</v>
       </c>
-      <c r="F7" s="244">
+      <c r="F7" s="240">
         <v>88</v>
       </c>
-      <c r="G7" s="245">
+      <c r="G7" s="241">
         <v>83</v>
       </c>
-      <c r="H7" s="246">
+      <c r="H7" s="242">
         <v>85</v>
       </c>
-      <c r="I7" s="247">
+      <c r="I7" s="243">
         <v>89</v>
       </c>
-      <c r="J7" s="248">
+      <c r="J7" s="244">
         <v>92</v>
       </c>
-      <c r="K7" s="249">
+      <c r="K7" s="245">
         <v>87</v>
       </c>
-      <c r="L7" s="250">
+      <c r="L7" s="246">
         <v>84</v>
       </c>
-      <c r="M7" s="251">
+      <c r="M7" s="247">
         <v>84</v>
       </c>
-      <c r="N7" s="252">
+      <c r="N7" s="248">
         <v>86</v>
       </c>
-      <c r="O7" s="253">
+      <c r="O7" s="249">
         <v>81</v>
       </c>
-      <c r="P7" s="254">
+      <c r="P7" s="250">
         <v>87</v>
       </c>
-      <c r="Q7" s="255">
+      <c r="Q7" s="251">
         <v>72</v>
       </c>
-      <c r="R7" s="256">
+      <c r="R7" s="252">
         <v>79</v>
       </c>
     </row>
@@ -2968,52 +2980,52 @@
       <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="257">
+      <c r="C8" s="253">
         <v>84</v>
       </c>
-      <c r="D8" s="258">
+      <c r="D8" s="254">
         <v>87</v>
       </c>
-      <c r="E8" s="259">
+      <c r="E8" s="255">
         <v>69</v>
       </c>
-      <c r="F8" s="260">
+      <c r="F8" s="256">
         <v>88</v>
       </c>
-      <c r="G8" s="261">
+      <c r="G8" s="257">
         <v>82</v>
       </c>
-      <c r="H8" s="262">
+      <c r="H8" s="258">
         <v>80</v>
       </c>
-      <c r="I8" s="263">
+      <c r="I8" s="259">
         <v>82</v>
       </c>
-      <c r="J8" s="264">
+      <c r="J8" s="260">
         <v>83</v>
       </c>
-      <c r="K8" s="265">
+      <c r="K8" s="261">
         <v>88</v>
       </c>
-      <c r="L8" s="266">
+      <c r="L8" s="262">
         <v>72</v>
       </c>
-      <c r="M8" s="267">
+      <c r="M8" s="263">
         <v>78</v>
       </c>
-      <c r="N8" s="268">
+      <c r="N8" s="264">
         <v>80</v>
       </c>
-      <c r="O8" s="269">
+      <c r="O8" s="265">
         <v>88</v>
       </c>
-      <c r="P8" s="270">
+      <c r="P8" s="266">
         <v>79</v>
       </c>
-      <c r="Q8" s="271">
+      <c r="Q8" s="267">
         <v>83</v>
       </c>
-      <c r="R8" s="272">
+      <c r="R8" s="268">
         <v>86</v>
       </c>
     </row>
@@ -3024,52 +3036,52 @@
       <c r="B9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="273">
+      <c r="C9" s="269">
         <v>91</v>
       </c>
-      <c r="D9" s="274">
+      <c r="D9" s="270">
         <v>82</v>
       </c>
-      <c r="E9" s="275">
+      <c r="E9" s="271">
         <v>80</v>
       </c>
-      <c r="F9" s="276">
+      <c r="F9" s="272">
         <v>79</v>
       </c>
-      <c r="G9" s="277">
+      <c r="G9" s="273">
         <v>91</v>
       </c>
-      <c r="H9" s="278">
+      <c r="H9" s="274">
         <v>94</v>
       </c>
-      <c r="I9" s="279">
+      <c r="I9" s="275">
         <v>72</v>
       </c>
-      <c r="J9" s="280">
+      <c r="J9" s="276">
         <v>79</v>
       </c>
-      <c r="K9" s="281">
+      <c r="K9" s="277">
         <v>94</v>
       </c>
-      <c r="L9" s="282">
+      <c r="L9" s="278">
         <v>94</v>
       </c>
-      <c r="M9" s="283">
+      <c r="M9" s="279">
         <v>83</v>
       </c>
-      <c r="N9" s="284">
+      <c r="N9" s="280">
         <v>89</v>
       </c>
-      <c r="O9" s="285">
+      <c r="O9" s="281">
         <v>83</v>
       </c>
-      <c r="P9" s="286">
+      <c r="P9" s="282">
         <v>88</v>
       </c>
-      <c r="Q9" s="287">
+      <c r="Q9" s="283">
         <v>84</v>
       </c>
-      <c r="R9" s="288">
+      <c r="R9" s="284">
         <v>89</v>
       </c>
     </row>
@@ -3080,52 +3092,52 @@
       <c r="B10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="289">
+      <c r="C10" s="285">
         <v>88</v>
       </c>
-      <c r="D10" s="290">
+      <c r="D10" s="286">
         <v>79</v>
       </c>
-      <c r="E10" s="291">
+      <c r="E10" s="287">
         <v>82</v>
       </c>
-      <c r="F10" s="292">
+      <c r="F10" s="288">
         <v>73</v>
       </c>
-      <c r="G10" s="293">
+      <c r="G10" s="289">
         <v>83</v>
       </c>
-      <c r="H10" s="294">
+      <c r="H10" s="290">
         <v>73</v>
       </c>
-      <c r="I10" s="295">
+      <c r="I10" s="291">
         <v>1</v>
       </c>
-      <c r="J10" s="296">
+      <c r="J10" s="292">
         <v>1</v>
       </c>
-      <c r="K10" s="297">
+      <c r="K10" s="293">
         <v>82</v>
       </c>
-      <c r="L10" s="298">
+      <c r="L10" s="294">
         <v>85</v>
       </c>
-      <c r="M10" s="299">
+      <c r="M10" s="295">
         <v>80</v>
       </c>
-      <c r="N10" s="300">
+      <c r="N10" s="296">
         <v>76</v>
       </c>
-      <c r="O10" s="301">
+      <c r="O10" s="297">
         <v>79</v>
       </c>
-      <c r="P10" s="302">
+      <c r="P10" s="298">
         <v>74</v>
       </c>
-      <c r="Q10" s="303">
+      <c r="Q10" s="299">
         <v>81</v>
       </c>
-      <c r="R10" s="304">
+      <c r="R10" s="300">
         <v>83</v>
       </c>
     </row>
@@ -3136,22 +3148,22 @@
       <c r="B11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="305">
+      <c r="C11" s="301">
         <v>71</v>
       </c>
-      <c r="D11" s="306">
+      <c r="D11" s="302">
         <v>77</v>
       </c>
-      <c r="E11" s="307">
+      <c r="E11" s="303">
         <v>1</v>
       </c>
-      <c r="F11" s="308">
+      <c r="F11" s="304">
         <v>1</v>
       </c>
-      <c r="G11" s="309">
+      <c r="G11" s="305">
         <v>1</v>
       </c>
-      <c r="H11" s="310">
+      <c r="H11" s="306">
         <v>1</v>
       </c>
       <c r="I11" s="11">
@@ -3192,52 +3204,52 @@
       <c r="B12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="311">
+      <c r="C12" s="307">
         <v>79</v>
       </c>
-      <c r="D12" s="312">
+      <c r="D12" s="308">
         <v>85</v>
       </c>
-      <c r="E12" s="313">
+      <c r="E12" s="309">
         <v>66</v>
       </c>
-      <c r="F12" s="314">
+      <c r="F12" s="310">
         <v>70</v>
       </c>
-      <c r="G12" s="315">
+      <c r="G12" s="311">
         <v>1</v>
       </c>
-      <c r="H12" s="316">
+      <c r="H12" s="312">
         <v>1</v>
       </c>
-      <c r="I12" s="317">
+      <c r="I12" s="313">
         <v>79</v>
       </c>
-      <c r="J12" s="318">
+      <c r="J12" s="314">
         <v>83</v>
       </c>
-      <c r="K12" s="319">
+      <c r="K12" s="315">
         <v>77</v>
       </c>
-      <c r="L12" s="320">
+      <c r="L12" s="316">
         <v>75</v>
       </c>
-      <c r="M12" s="321">
+      <c r="M12" s="317">
         <v>1</v>
       </c>
-      <c r="N12" s="322">
+      <c r="N12" s="318">
         <v>1</v>
       </c>
-      <c r="O12" s="323">
+      <c r="O12" s="319">
         <v>1</v>
       </c>
-      <c r="P12" s="324">
+      <c r="P12" s="320">
         <v>1</v>
       </c>
-      <c r="Q12" s="325">
+      <c r="Q12" s="321">
         <v>83</v>
       </c>
-      <c r="R12" s="326">
+      <c r="R12" s="322">
         <v>84</v>
       </c>
     </row>
@@ -3304,10 +3316,10 @@
       <c r="B14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="327">
+      <c r="C14" s="323">
         <v>1</v>
       </c>
-      <c r="D14" s="328">
+      <c r="D14" s="324">
         <v>1</v>
       </c>
       <c r="E14" s="37">
@@ -3528,10 +3540,10 @@
       <c r="B18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="329">
+      <c r="C18" s="325">
         <v>1</v>
       </c>
-      <c r="D18" s="330">
+      <c r="D18" s="326">
         <v>1</v>
       </c>
       <c r="E18" s="99">
@@ -3696,52 +3708,52 @@
       <c r="B21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="331">
+      <c r="C21" s="327">
         <v>87</v>
       </c>
-      <c r="D21" s="332">
+      <c r="D21" s="328">
         <v>85</v>
       </c>
-      <c r="E21" s="333">
+      <c r="E21" s="329">
         <v>86</v>
       </c>
-      <c r="F21" s="334">
+      <c r="F21" s="330">
         <v>86</v>
       </c>
-      <c r="G21" s="335">
+      <c r="G21" s="331">
         <v>85</v>
       </c>
-      <c r="H21" s="336">
+      <c r="H21" s="332">
         <v>89</v>
       </c>
-      <c r="I21" s="337">
+      <c r="I21" s="333">
         <v>87</v>
       </c>
-      <c r="J21" s="338">
+      <c r="J21" s="334">
         <v>81</v>
       </c>
-      <c r="K21" s="339">
+      <c r="K21" s="335">
         <v>86</v>
       </c>
-      <c r="L21" s="340">
+      <c r="L21" s="336">
         <v>86</v>
       </c>
-      <c r="M21" s="341">
+      <c r="M21" s="337">
         <v>58</v>
       </c>
-      <c r="N21" s="342">
+      <c r="N21" s="338">
         <v>86</v>
       </c>
-      <c r="O21" s="343">
+      <c r="O21" s="339">
         <v>83</v>
       </c>
-      <c r="P21" s="344">
+      <c r="P21" s="340">
         <v>84</v>
       </c>
-      <c r="Q21" s="345">
+      <c r="Q21" s="341">
         <v>69</v>
       </c>
-      <c r="R21" s="346">
+      <c r="R21" s="342">
         <v>73</v>
       </c>
     </row>
@@ -3808,52 +3820,52 @@
       <c r="B23" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="347">
+      <c r="C23" s="343">
         <v>83</v>
       </c>
-      <c r="D23" s="348">
+      <c r="D23" s="344">
         <v>85</v>
       </c>
-      <c r="E23" s="349">
+      <c r="E23" s="345">
         <v>73</v>
       </c>
-      <c r="F23" s="350">
+      <c r="F23" s="346">
         <v>77</v>
       </c>
-      <c r="G23" s="351">
+      <c r="G23" s="347">
         <v>84</v>
       </c>
-      <c r="H23" s="352">
+      <c r="H23" s="348">
         <v>92</v>
       </c>
-      <c r="I23" s="353">
+      <c r="I23" s="349">
         <v>77</v>
       </c>
-      <c r="J23" s="354">
+      <c r="J23" s="350">
         <v>85</v>
       </c>
-      <c r="K23" s="355">
+      <c r="K23" s="351">
         <v>76</v>
       </c>
-      <c r="L23" s="356">
+      <c r="L23" s="352">
         <v>80</v>
       </c>
-      <c r="M23" s="357">
+      <c r="M23" s="353">
         <v>77</v>
       </c>
-      <c r="N23" s="358">
+      <c r="N23" s="354">
         <v>80</v>
       </c>
-      <c r="O23" s="359">
+      <c r="O23" s="355">
         <v>76</v>
       </c>
-      <c r="P23" s="360">
+      <c r="P23" s="356">
         <v>82</v>
       </c>
-      <c r="Q23" s="361">
+      <c r="Q23" s="357">
         <v>78</v>
       </c>
-      <c r="R23" s="362">
+      <c r="R23" s="358">
         <v>87</v>
       </c>
     </row>
@@ -3864,52 +3876,52 @@
       <c r="B24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="363">
+      <c r="C24" s="359">
         <v>84</v>
       </c>
-      <c r="D24" s="364">
+      <c r="D24" s="360">
         <v>78</v>
       </c>
-      <c r="E24" s="365">
+      <c r="E24" s="361">
         <v>83</v>
       </c>
-      <c r="F24" s="366">
+      <c r="F24" s="362">
         <v>74</v>
       </c>
-      <c r="G24" s="367">
+      <c r="G24" s="363">
         <v>78</v>
       </c>
-      <c r="H24" s="368">
+      <c r="H24" s="364">
         <v>78</v>
       </c>
-      <c r="I24" s="369">
+      <c r="I24" s="365">
         <v>91</v>
       </c>
-      <c r="J24" s="370">
+      <c r="J24" s="366">
         <v>90</v>
       </c>
-      <c r="K24" s="371">
+      <c r="K24" s="367">
         <v>1</v>
       </c>
-      <c r="L24" s="372">
+      <c r="L24" s="368">
         <v>1</v>
       </c>
-      <c r="M24" s="373">
+      <c r="M24" s="369">
         <v>85</v>
       </c>
-      <c r="N24" s="374">
+      <c r="N24" s="370">
         <v>83</v>
       </c>
-      <c r="O24" s="375">
+      <c r="O24" s="371">
         <v>77</v>
       </c>
-      <c r="P24" s="376">
+      <c r="P24" s="372">
         <v>80</v>
       </c>
-      <c r="Q24" s="377">
+      <c r="Q24" s="373">
         <v>84</v>
       </c>
-      <c r="R24" s="378">
+      <c r="R24" s="374">
         <v>86</v>
       </c>
     </row>
@@ -3920,52 +3932,52 @@
       <c r="B25" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="379">
+      <c r="C25" s="375">
         <v>89</v>
       </c>
-      <c r="D25" s="380">
+      <c r="D25" s="376">
         <v>91</v>
       </c>
-      <c r="E25" s="381">
+      <c r="E25" s="377">
         <v>90</v>
       </c>
-      <c r="F25" s="382">
+      <c r="F25" s="378">
         <v>91</v>
       </c>
-      <c r="G25" s="383">
+      <c r="G25" s="379">
         <v>91</v>
       </c>
-      <c r="H25" s="384">
+      <c r="H25" s="380">
         <v>89</v>
       </c>
-      <c r="I25" s="385">
+      <c r="I25" s="381">
         <v>80</v>
       </c>
-      <c r="J25" s="386">
+      <c r="J25" s="382">
         <v>83</v>
       </c>
-      <c r="K25" s="387">
+      <c r="K25" s="383">
         <v>84</v>
       </c>
-      <c r="L25" s="388">
+      <c r="L25" s="384">
         <v>89</v>
       </c>
-      <c r="M25" s="389">
+      <c r="M25" s="385">
         <v>83</v>
       </c>
-      <c r="N25" s="390">
+      <c r="N25" s="386">
         <v>86</v>
       </c>
-      <c r="O25" s="391">
+      <c r="O25" s="387">
         <v>84</v>
       </c>
-      <c r="P25" s="392">
+      <c r="P25" s="388">
         <v>85</v>
       </c>
-      <c r="Q25" s="393">
+      <c r="Q25" s="389">
         <v>91</v>
       </c>
-      <c r="R25" s="394">
+      <c r="R25" s="390">
         <v>90</v>
       </c>
     </row>
@@ -3976,52 +3988,52 @@
       <c r="B26" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="395">
+      <c r="C26" s="391">
         <v>81</v>
       </c>
-      <c r="D26" s="396">
+      <c r="D26" s="392">
         <v>86</v>
       </c>
-      <c r="E26" s="397">
+      <c r="E26" s="393">
         <v>83</v>
       </c>
-      <c r="F26" s="398">
+      <c r="F26" s="394">
         <v>88</v>
       </c>
-      <c r="G26" s="399">
+      <c r="G26" s="395">
         <v>76</v>
       </c>
-      <c r="H26" s="400">
+      <c r="H26" s="396">
         <v>89</v>
       </c>
-      <c r="I26" s="401">
+      <c r="I26" s="397">
         <v>83</v>
       </c>
-      <c r="J26" s="402">
+      <c r="J26" s="398">
         <v>87</v>
       </c>
-      <c r="K26" s="403">
+      <c r="K26" s="399">
         <v>84</v>
       </c>
-      <c r="L26" s="404">
+      <c r="L26" s="400">
         <v>89</v>
       </c>
-      <c r="M26" s="405">
+      <c r="M26" s="401">
         <v>80</v>
       </c>
-      <c r="N26" s="406">
+      <c r="N26" s="402">
         <v>89</v>
       </c>
-      <c r="O26" s="407">
+      <c r="O26" s="403">
         <v>83</v>
       </c>
-      <c r="P26" s="408">
+      <c r="P26" s="404">
         <v>88</v>
       </c>
-      <c r="Q26" s="409">
+      <c r="Q26" s="405">
         <v>81</v>
       </c>
-      <c r="R26" s="410">
+      <c r="R26" s="406">
         <v>86</v>
       </c>
     </row>
@@ -4032,52 +4044,52 @@
       <c r="B27" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="411">
+      <c r="C27" s="407">
         <v>71</v>
       </c>
-      <c r="D27" s="412">
+      <c r="D27" s="408">
         <v>84</v>
       </c>
-      <c r="E27" s="413">
+      <c r="E27" s="409">
         <v>76</v>
       </c>
-      <c r="F27" s="414">
+      <c r="F27" s="410">
         <v>79</v>
       </c>
-      <c r="G27" s="415">
+      <c r="G27" s="411">
         <v>77</v>
       </c>
-      <c r="H27" s="416">
+      <c r="H27" s="412">
         <v>80</v>
       </c>
-      <c r="I27" s="417">
+      <c r="I27" s="413">
         <v>74</v>
       </c>
-      <c r="J27" s="418">
+      <c r="J27" s="414">
         <v>85</v>
       </c>
-      <c r="K27" s="419">
+      <c r="K27" s="415">
         <v>78</v>
       </c>
-      <c r="L27" s="420">
+      <c r="L27" s="416">
         <v>78</v>
       </c>
-      <c r="M27" s="421">
+      <c r="M27" s="417">
         <v>74</v>
       </c>
-      <c r="N27" s="422">
+      <c r="N27" s="418">
         <v>85</v>
       </c>
-      <c r="O27" s="423">
+      <c r="O27" s="419">
         <v>87</v>
       </c>
-      <c r="P27" s="424">
+      <c r="P27" s="420">
         <v>86</v>
       </c>
-      <c r="Q27" s="425">
+      <c r="Q27" s="421">
         <v>78</v>
       </c>
-      <c r="R27" s="426">
+      <c r="R27" s="422">
         <v>80</v>
       </c>
     </row>
@@ -4088,52 +4100,52 @@
       <c r="B28" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="427">
+      <c r="C28" s="423">
         <v>83</v>
       </c>
-      <c r="D28" s="428">
+      <c r="D28" s="424">
         <v>84</v>
       </c>
-      <c r="E28" s="429">
+      <c r="E28" s="425">
         <v>87</v>
       </c>
-      <c r="F28" s="430">
+      <c r="F28" s="426">
         <v>88</v>
       </c>
-      <c r="G28" s="431">
+      <c r="G28" s="427">
         <v>91</v>
       </c>
-      <c r="H28" s="432">
+      <c r="H28" s="428">
         <v>89</v>
       </c>
-      <c r="I28" s="433">
+      <c r="I28" s="429">
         <v>91</v>
       </c>
-      <c r="J28" s="434">
+      <c r="J28" s="430">
         <v>86</v>
       </c>
-      <c r="K28" s="435">
+      <c r="K28" s="431">
         <v>91</v>
       </c>
-      <c r="L28" s="436">
+      <c r="L28" s="432">
         <v>90</v>
       </c>
-      <c r="M28" s="437">
+      <c r="M28" s="433">
         <v>76</v>
       </c>
-      <c r="N28" s="438">
+      <c r="N28" s="434">
         <v>79</v>
       </c>
-      <c r="O28" s="439">
+      <c r="O28" s="435">
         <v>85</v>
       </c>
-      <c r="P28" s="440">
+      <c r="P28" s="436">
         <v>85</v>
       </c>
-      <c r="Q28" s="441">
+      <c r="Q28" s="437">
         <v>85</v>
       </c>
-      <c r="R28" s="442">
+      <c r="R28" s="438">
         <v>85</v>
       </c>
     </row>
@@ -4144,52 +4156,52 @@
       <c r="B29" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="443">
+      <c r="C29" s="439">
         <v>87</v>
       </c>
-      <c r="D29" s="444">
+      <c r="D29" s="440">
         <v>80</v>
       </c>
-      <c r="E29" s="445">
+      <c r="E29" s="441">
         <v>84</v>
       </c>
-      <c r="F29" s="446">
+      <c r="F29" s="442">
         <v>79</v>
       </c>
-      <c r="G29" s="447">
+      <c r="G29" s="443">
         <v>87</v>
       </c>
-      <c r="H29" s="448">
+      <c r="H29" s="444">
         <v>89</v>
       </c>
-      <c r="I29" s="449">
+      <c r="I29" s="445">
         <v>91</v>
       </c>
-      <c r="J29" s="450">
+      <c r="J29" s="446">
         <v>88</v>
       </c>
-      <c r="K29" s="451">
+      <c r="K29" s="447">
         <v>84</v>
       </c>
-      <c r="L29" s="452">
+      <c r="L29" s="448">
         <v>83</v>
       </c>
-      <c r="M29" s="453">
+      <c r="M29" s="449">
         <v>84</v>
       </c>
-      <c r="N29" s="454">
+      <c r="N29" s="450">
         <v>74</v>
       </c>
-      <c r="O29" s="455">
+      <c r="O29" s="451">
         <v>74</v>
       </c>
-      <c r="P29" s="456">
+      <c r="P29" s="452">
         <v>73</v>
       </c>
-      <c r="Q29" s="457">
+      <c r="Q29" s="453">
         <v>80</v>
       </c>
-      <c r="R29" s="458">
+      <c r="R29" s="454">
         <v>70</v>
       </c>
     </row>
@@ -4200,52 +4212,52 @@
       <c r="B30" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="459">
+      <c r="C30" s="455">
         <v>61</v>
       </c>
-      <c r="D30" s="460">
+      <c r="D30" s="456">
         <v>74</v>
       </c>
-      <c r="E30" s="461">
+      <c r="E30" s="457">
         <v>72</v>
       </c>
-      <c r="F30" s="462">
+      <c r="F30" s="458">
         <v>88</v>
       </c>
-      <c r="G30" s="463">
+      <c r="G30" s="459">
         <v>74</v>
       </c>
-      <c r="H30" s="464">
+      <c r="H30" s="460">
         <v>91</v>
       </c>
-      <c r="I30" s="465">
+      <c r="I30" s="461">
         <v>70</v>
       </c>
-      <c r="J30" s="466">
+      <c r="J30" s="462">
         <v>86</v>
       </c>
-      <c r="K30" s="467">
+      <c r="K30" s="463">
         <v>76</v>
       </c>
-      <c r="L30" s="468">
+      <c r="L30" s="464">
         <v>87</v>
       </c>
-      <c r="M30" s="469">
+      <c r="M30" s="465">
         <v>67</v>
       </c>
-      <c r="N30" s="470">
+      <c r="N30" s="466">
         <v>87</v>
       </c>
-      <c r="O30" s="471">
+      <c r="O30" s="467">
         <v>67</v>
       </c>
-      <c r="P30" s="472">
+      <c r="P30" s="468">
         <v>82</v>
       </c>
-      <c r="Q30" s="473">
+      <c r="Q30" s="469">
         <v>72</v>
       </c>
-      <c r="R30" s="474">
+      <c r="R30" s="470">
         <v>89</v>
       </c>
     </row>
@@ -4256,52 +4268,52 @@
       <c r="B31" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="475">
+      <c r="C31" s="471">
         <v>79</v>
       </c>
-      <c r="D31" s="476">
+      <c r="D31" s="472">
         <v>83</v>
       </c>
-      <c r="E31" s="477">
+      <c r="E31" s="473">
         <v>87</v>
       </c>
-      <c r="F31" s="478">
+      <c r="F31" s="474">
         <v>88</v>
       </c>
-      <c r="G31" s="479">
+      <c r="G31" s="475">
         <v>78</v>
       </c>
-      <c r="H31" s="480">
+      <c r="H31" s="476">
         <v>82</v>
       </c>
-      <c r="I31" s="481">
+      <c r="I31" s="477">
         <v>83</v>
       </c>
-      <c r="J31" s="482">
+      <c r="J31" s="478">
         <v>86</v>
       </c>
-      <c r="K31" s="483">
+      <c r="K31" s="479">
         <v>58</v>
       </c>
-      <c r="L31" s="484">
+      <c r="L31" s="480">
         <v>66</v>
       </c>
-      <c r="M31" s="485">
+      <c r="M31" s="481">
         <v>86</v>
       </c>
-      <c r="N31" s="486">
+      <c r="N31" s="482">
         <v>88</v>
       </c>
-      <c r="O31" s="487">
+      <c r="O31" s="483">
         <v>87</v>
       </c>
-      <c r="P31" s="488">
+      <c r="P31" s="484">
         <v>88</v>
       </c>
-      <c r="Q31" s="489">
+      <c r="Q31" s="485">
         <v>83</v>
       </c>
-      <c r="R31" s="490">
+      <c r="R31" s="486">
         <v>87</v>
       </c>
     </row>
@@ -4312,52 +4324,52 @@
       <c r="B32" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="491">
+      <c r="C32" s="487">
         <v>72</v>
       </c>
-      <c r="D32" s="492">
+      <c r="D32" s="488">
         <v>81</v>
       </c>
-      <c r="E32" s="493">
+      <c r="E32" s="489">
         <v>73</v>
       </c>
-      <c r="F32" s="494">
+      <c r="F32" s="490">
         <v>76</v>
       </c>
-      <c r="G32" s="495">
+      <c r="G32" s="491">
         <v>77</v>
       </c>
-      <c r="H32" s="496">
+      <c r="H32" s="492">
         <v>86</v>
       </c>
-      <c r="I32" s="497">
+      <c r="I32" s="493">
         <v>52</v>
       </c>
-      <c r="J32" s="498">
+      <c r="J32" s="494">
         <v>60</v>
       </c>
-      <c r="K32" s="499">
+      <c r="K32" s="495">
         <v>89</v>
       </c>
-      <c r="L32" s="500">
+      <c r="L32" s="496">
         <v>92</v>
       </c>
-      <c r="M32" s="501">
+      <c r="M32" s="497">
         <v>76</v>
       </c>
-      <c r="N32" s="502">
+      <c r="N32" s="498">
         <v>81</v>
       </c>
-      <c r="O32" s="503">
+      <c r="O32" s="499">
         <v>91</v>
       </c>
-      <c r="P32" s="504">
+      <c r="P32" s="500">
         <v>84</v>
       </c>
-      <c r="Q32" s="505">
+      <c r="Q32" s="501">
         <v>79</v>
       </c>
-      <c r="R32" s="506">
+      <c r="R32" s="502">
         <v>82</v>
       </c>
     </row>
@@ -4368,52 +4380,52 @@
       <c r="B33" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="507">
+      <c r="C33" s="503">
         <v>75</v>
       </c>
-      <c r="D33" s="508">
+      <c r="D33" s="504">
         <v>79</v>
       </c>
-      <c r="E33" s="509">
+      <c r="E33" s="505">
         <v>83</v>
       </c>
-      <c r="F33" s="510">
+      <c r="F33" s="506">
         <v>87</v>
       </c>
-      <c r="G33" s="511">
+      <c r="G33" s="507">
         <v>46</v>
       </c>
-      <c r="H33" s="512">
+      <c r="H33" s="508">
         <v>54</v>
       </c>
-      <c r="I33" s="513">
+      <c r="I33" s="509">
         <v>83</v>
       </c>
-      <c r="J33" s="514">
+      <c r="J33" s="510">
         <v>86</v>
       </c>
-      <c r="K33" s="515">
+      <c r="K33" s="511">
         <v>81</v>
       </c>
-      <c r="L33" s="516">
+      <c r="L33" s="512">
         <v>86</v>
       </c>
-      <c r="M33" s="517">
+      <c r="M33" s="513">
         <v>82</v>
       </c>
-      <c r="N33" s="518">
+      <c r="N33" s="514">
         <v>84</v>
       </c>
-      <c r="O33" s="519">
+      <c r="O33" s="515">
         <v>80</v>
       </c>
-      <c r="P33" s="520">
+      <c r="P33" s="516">
         <v>84</v>
       </c>
-      <c r="Q33" s="521">
+      <c r="Q33" s="517">
         <v>69</v>
       </c>
-      <c r="R33" s="522">
+      <c r="R33" s="518">
         <v>74</v>
       </c>
     </row>
@@ -4424,52 +4436,52 @@
       <c r="B34" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="523">
+      <c r="C34" s="519">
         <v>68</v>
       </c>
-      <c r="D34" s="524">
+      <c r="D34" s="520">
         <v>73</v>
       </c>
-      <c r="E34" s="525">
+      <c r="E34" s="521">
         <v>80</v>
       </c>
-      <c r="F34" s="526">
+      <c r="F34" s="522">
         <v>83</v>
       </c>
-      <c r="G34" s="527">
+      <c r="G34" s="523">
         <v>85</v>
       </c>
-      <c r="H34" s="528">
+      <c r="H34" s="524">
         <v>87</v>
       </c>
-      <c r="I34" s="529">
+      <c r="I34" s="525">
         <v>69</v>
       </c>
-      <c r="J34" s="530">
+      <c r="J34" s="526">
         <v>86</v>
       </c>
-      <c r="K34" s="531">
+      <c r="K34" s="527">
         <v>68</v>
       </c>
-      <c r="L34" s="532">
+      <c r="L34" s="528">
         <v>79</v>
       </c>
-      <c r="M34" s="533">
+      <c r="M34" s="529">
         <v>85</v>
       </c>
-      <c r="N34" s="534">
+      <c r="N34" s="530">
         <v>87</v>
       </c>
-      <c r="O34" s="535">
+      <c r="O34" s="531">
         <v>81</v>
       </c>
-      <c r="P34" s="536">
+      <c r="P34" s="532">
         <v>91</v>
       </c>
-      <c r="Q34" s="537">
+      <c r="Q34" s="533">
         <v>69</v>
       </c>
-      <c r="R34" s="538">
+      <c r="R34" s="534">
         <v>85</v>
       </c>
     </row>
@@ -4480,52 +4492,52 @@
       <c r="B35" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="539">
+      <c r="C35" s="535">
         <v>80</v>
       </c>
-      <c r="D35" s="540">
+      <c r="D35" s="536">
         <v>85</v>
       </c>
-      <c r="E35" s="541">
+      <c r="E35" s="537">
         <v>77</v>
       </c>
-      <c r="F35" s="542">
+      <c r="F35" s="538">
         <v>81</v>
       </c>
-      <c r="G35" s="543">
+      <c r="G35" s="539">
         <v>77</v>
       </c>
-      <c r="H35" s="544">
+      <c r="H35" s="540">
         <v>88</v>
       </c>
-      <c r="I35" s="545">
+      <c r="I35" s="541">
         <v>82</v>
       </c>
-      <c r="J35" s="546">
+      <c r="J35" s="542">
         <v>85</v>
       </c>
-      <c r="K35" s="547">
+      <c r="K35" s="543">
         <v>89</v>
       </c>
-      <c r="L35" s="548">
+      <c r="L35" s="544">
         <v>90</v>
       </c>
-      <c r="M35" s="549">
+      <c r="M35" s="545">
         <v>78</v>
       </c>
-      <c r="N35" s="550">
+      <c r="N35" s="546">
         <v>86</v>
       </c>
-      <c r="O35" s="551">
+      <c r="O35" s="547">
         <v>78</v>
       </c>
-      <c r="P35" s="552">
+      <c r="P35" s="548">
         <v>89</v>
       </c>
-      <c r="Q35" s="553">
+      <c r="Q35" s="549">
         <v>68</v>
       </c>
-      <c r="R35" s="554">
+      <c r="R35" s="550">
         <v>70</v>
       </c>
     </row>
@@ -4536,52 +4548,52 @@
       <c r="B36" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="555">
+      <c r="C36" s="551">
         <v>84</v>
       </c>
-      <c r="D36" s="556">
+      <c r="D36" s="552">
         <v>84</v>
       </c>
-      <c r="E36" s="557">
+      <c r="E36" s="553">
         <v>86</v>
       </c>
-      <c r="F36" s="558">
+      <c r="F36" s="554">
         <v>77</v>
       </c>
-      <c r="G36" s="559">
+      <c r="G36" s="555">
         <v>89</v>
       </c>
-      <c r="H36" s="560">
+      <c r="H36" s="556">
         <v>88</v>
       </c>
-      <c r="I36" s="561">
+      <c r="I36" s="557">
         <v>85</v>
       </c>
-      <c r="J36" s="562">
+      <c r="J36" s="558">
         <v>81</v>
       </c>
-      <c r="K36" s="563">
+      <c r="K36" s="559">
         <v>91</v>
       </c>
-      <c r="L36" s="564">
+      <c r="L36" s="560">
         <v>62</v>
       </c>
-      <c r="M36" s="565">
+      <c r="M36" s="561">
         <v>84</v>
       </c>
-      <c r="N36" s="566">
+      <c r="N36" s="562">
         <v>83</v>
       </c>
-      <c r="O36" s="567">
+      <c r="O36" s="563">
         <v>84</v>
       </c>
-      <c r="P36" s="568">
+      <c r="P36" s="564">
         <v>86</v>
       </c>
-      <c r="Q36" s="569">
+      <c r="Q36" s="565">
         <v>91</v>
       </c>
-      <c r="R36" s="570">
+      <c r="R36" s="566">
         <v>91</v>
       </c>
     </row>
@@ -4592,132 +4604,101 @@
       <c r="B37" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="571">
+      <c r="C37" s="567">
         <v>78</v>
       </c>
-      <c r="D37" s="572">
+      <c r="D37" s="568">
         <v>83</v>
       </c>
-      <c r="E37" s="573">
+      <c r="E37" s="569">
         <v>89</v>
       </c>
-      <c r="F37" s="574">
+      <c r="F37" s="570">
         <v>92</v>
       </c>
-      <c r="G37" s="575">
+      <c r="G37" s="571">
         <v>91</v>
       </c>
-      <c r="H37" s="576">
+      <c r="H37" s="572">
         <v>91</v>
       </c>
-      <c r="I37" s="577">
+      <c r="I37" s="573">
         <v>82</v>
       </c>
-      <c r="J37" s="578">
+      <c r="J37" s="574">
         <v>86</v>
       </c>
-      <c r="K37" s="579">
+      <c r="K37" s="575">
         <v>82</v>
       </c>
-      <c r="L37" s="580">
+      <c r="L37" s="576">
         <v>91</v>
       </c>
-      <c r="M37" s="581">
+      <c r="M37" s="577">
         <v>71</v>
       </c>
-      <c r="N37" s="582">
+      <c r="N37" s="578">
         <v>75</v>
       </c>
-      <c r="O37" s="583">
+      <c r="O37" s="579">
         <v>91</v>
       </c>
-      <c r="P37" s="584">
+      <c r="P37" s="580">
         <v>92</v>
       </c>
-      <c r="Q37" s="585">
+      <c r="Q37" s="581">
         <v>83</v>
       </c>
-      <c r="R37" s="586">
+      <c r="R37" s="582">
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.sulekha.com/bank-insurance-exam-coaching/chennai"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.sulekha.com/college-tuitions/chennai"/>
-    <hyperlink ref="B4" r:id="rId3" display="http://www.sulekha.com/ssb-coaching/chennai"/>
-    <hyperlink ref="B5" r:id="rId4" display="http://www.sulekha.com/sat-coaching/chennai"/>
-    <hyperlink ref="B6" r:id="rId5" display="http://www.sulekha.com/ca-coaching/chennai"/>
-    <hyperlink ref="B7" r:id="rId6" display="http://www.sulekha.com/government-exams-coaching/chennai"/>
-    <hyperlink ref="B8" r:id="rId7" display="http://www.sulekha.com/spoken-english-classes/chennai"/>
-    <hyperlink ref="B9" r:id="rId8" display="http://www.sulekha.com/home-private-tuitions/chennai"/>
-    <hyperlink ref="B10" r:id="rId9" display="http://www.sulekha.com/packers-and-movers/chennai"/>
-    <hyperlink ref="B11" r:id="rId10" display="http://www.sulekha.com/interior-designers-decorators/chennai"/>
-    <hyperlink ref="B12" r:id="rId11" display="http://www.sulekha.com/company-formation-registration-services/chennai"/>
-    <hyperlink ref="B13" r:id="rId12" display="http://www.sulekha.com/generator-dealers/chennai"/>
-    <hyperlink ref="B14" r:id="rId13" display="http://www.sulekha.com/ac-dealers/chennai"/>
-    <hyperlink ref="B15" r:id="rId14" display="http://www.sulekha.com/ac-rentals/chennai"/>
-    <hyperlink ref="B16" r:id="rId15" display="http://www.sulekha.com/ac-repair-services/chennai"/>
-    <hyperlink ref="B17" r:id="rId16" display="http://www.sulekha.com/advocates-lawyers/chennai"/>
-    <hyperlink ref="B18" r:id="rId17" display="http://www.sulekha.com/security-system-dealers/chennai"/>
-    <hyperlink ref="B19" r:id="rId18" display="http://www.sulekha.com/airport-security-guards/chennai"/>
-    <hyperlink ref="B20" r:id="rId19" display="http://www.sulekha.com/bike-rentals/chennai"/>
-    <hyperlink ref="B21" r:id="rId20" display="http://www.sulekha.com/catering-services/chennai"/>
-    <hyperlink ref="B22" r:id="rId21" display="http://www.sulekha.com/home-appliances-repair-services/chennai"/>
-    <hyperlink ref="B23" r:id="rId22" display="http://www.sulekha.com/job-training/chennai"/>
-    <hyperlink ref="B24" r:id="rId23" display="http://www.sulekha.com/building-consultants-contractors/chennai"/>
-    <hyperlink ref="B25" r:id="rId24" display="http://www.sulekha.com/personal-loans/chennai"/>
-    <hyperlink ref="B26" r:id="rId25" display="http://www.sulekha.com/web-design-services/chennai"/>
-    <hyperlink ref="B27" r:id="rId26" display="http://www.sulekha.com/mba-distance-education/chennai"/>
-    <hyperlink ref="B28" r:id="rId27" display="http://www.sulekha.com/tour-operators/chennai"/>
-    <hyperlink ref="B29" r:id="rId28" display="http://www.sulekha.com/pest-control-services/chennai"/>
-    <hyperlink ref="B30" r:id="rId29" display="http://www.sulekha.com/overseas-education-consultants/chennai"/>
-    <hyperlink ref="B31" r:id="rId30" display="http://www.sulekha.com/event-management-companies/chennai"/>
-    <hyperlink ref="B32" r:id="rId31" display="http://www.sulekha.com/computer-repair-services/chennai"/>
-    <hyperlink ref="B33" r:id="rId32" display="http://www.sulekha.com/modular-kitchen-dealers/chennai"/>
-    <hyperlink ref="B34" r:id="rId33" display="http://www.sulekha.com/water-purifier-dealers/chennai"/>
-    <hyperlink ref="B35" r:id="rId34" display="http://www.sulekha.com/domestic-help-services/chennai"/>
-    <hyperlink ref="B36" r:id="rId35" display="http://www.sulekha.com/housekeeping-services/chennai"/>
-    <hyperlink ref="B37" r:id="rId36" display="http://www.sulekha.com/ups-dealers/chennai"/>
+    <hyperlink display="http://www.sulekha.com/bank-insurance-exam-coaching/chennai" r:id="rId1" ref="B2"/>
+    <hyperlink display="http://www.sulekha.com/college-tuitions/chennai" r:id="rId2" ref="B3"/>
+    <hyperlink display="http://www.sulekha.com/ssb-coaching/chennai" r:id="rId3" ref="B4"/>
+    <hyperlink display="http://www.sulekha.com/sat-coaching/chennai" r:id="rId4" ref="B5"/>
+    <hyperlink display="http://www.sulekha.com/ca-coaching/chennai" r:id="rId5" ref="B6"/>
+    <hyperlink display="http://www.sulekha.com/government-exams-coaching/chennai" r:id="rId6" ref="B7"/>
+    <hyperlink display="http://www.sulekha.com/spoken-english-classes/chennai" r:id="rId7" ref="B8"/>
+    <hyperlink display="http://www.sulekha.com/home-private-tuitions/chennai" r:id="rId8" ref="B9"/>
+    <hyperlink display="http://www.sulekha.com/packers-and-movers/chennai" r:id="rId9" ref="B10"/>
+    <hyperlink display="http://www.sulekha.com/interior-designers-decorators/chennai" r:id="rId10" ref="B11"/>
+    <hyperlink display="http://www.sulekha.com/company-formation-registration-services/chennai" r:id="rId11" ref="B12"/>
+    <hyperlink display="http://www.sulekha.com/generator-dealers/chennai" r:id="rId12" ref="B13"/>
+    <hyperlink display="http://www.sulekha.com/ac-dealers/chennai" r:id="rId13" ref="B14"/>
+    <hyperlink display="http://www.sulekha.com/ac-rentals/chennai" r:id="rId14" ref="B15"/>
+    <hyperlink display="http://www.sulekha.com/ac-repair-services/chennai" r:id="rId15" ref="B16"/>
+    <hyperlink display="http://www.sulekha.com/advocates-lawyers/chennai" r:id="rId16" ref="B17"/>
+    <hyperlink display="http://www.sulekha.com/security-system-dealers/chennai" r:id="rId17" ref="B18"/>
+    <hyperlink display="http://www.sulekha.com/airport-security-guards/chennai" r:id="rId18" ref="B19"/>
+    <hyperlink display="http://www.sulekha.com/bike-rentals/chennai" r:id="rId19" ref="B20"/>
+    <hyperlink display="http://www.sulekha.com/catering-services/chennai" r:id="rId20" ref="B21"/>
+    <hyperlink display="http://www.sulekha.com/home-appliances-repair-services/chennai" r:id="rId21" ref="B22"/>
+    <hyperlink display="http://www.sulekha.com/job-training/chennai" r:id="rId22" ref="B23"/>
+    <hyperlink display="http://www.sulekha.com/building-consultants-contractors/chennai" r:id="rId23" ref="B24"/>
+    <hyperlink display="http://www.sulekha.com/personal-loans/chennai" r:id="rId24" ref="B25"/>
+    <hyperlink display="http://www.sulekha.com/web-design-services/chennai" r:id="rId25" ref="B26"/>
+    <hyperlink display="http://www.sulekha.com/mba-distance-education/chennai" r:id="rId26" ref="B27"/>
+    <hyperlink display="http://www.sulekha.com/tour-operators/chennai" r:id="rId27" ref="B28"/>
+    <hyperlink display="http://www.sulekha.com/pest-control-services/chennai" r:id="rId28" ref="B29"/>
+    <hyperlink display="http://www.sulekha.com/overseas-education-consultants/chennai" r:id="rId29" ref="B30"/>
+    <hyperlink display="http://www.sulekha.com/event-management-companies/chennai" r:id="rId30" ref="B31"/>
+    <hyperlink display="http://www.sulekha.com/computer-repair-services/chennai" r:id="rId31" ref="B32"/>
+    <hyperlink display="http://www.sulekha.com/modular-kitchen-dealers/chennai" r:id="rId32" ref="B33"/>
+    <hyperlink display="http://www.sulekha.com/water-purifier-dealers/chennai" r:id="rId33" ref="B34"/>
+    <hyperlink display="http://www.sulekha.com/domestic-help-services/chennai" r:id="rId34" ref="B35"/>
+    <hyperlink display="http://www.sulekha.com/housekeeping-services/chennai" r:id="rId35" ref="B36"/>
+    <hyperlink display="http://www.sulekha.com/ups-dealers/chennai" r:id="rId36" ref="B37"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4767,15 +4748,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R37"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B37"/>
     </sheetView>
   </sheetViews>
@@ -4788,7 +4769,7 @@
     <col min="5" max="5" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row ht="18.75" r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4844,7 +4825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -4852,7 +4833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="3" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -4860,7 +4841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -4868,7 +4849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="5" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -4876,7 +4857,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="6" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -4884,7 +4865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="7" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -4892,7 +4873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="8" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4900,7 +4881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="9" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -4908,7 +4889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="10" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -4916,7 +4897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="11" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -4924,7 +4905,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="12" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
@@ -4932,7 +4913,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="13" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
@@ -4940,7 +4921,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="14" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -4948,7 +4929,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="15" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
@@ -4956,7 +4937,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="16" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
@@ -4964,7 +4945,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="17" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -4972,7 +4953,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="18" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -4980,7 +4961,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="19" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -4988,7 +4969,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="20" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -4996,7 +4977,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="21" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
@@ -5004,7 +4985,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="22" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -5012,7 +4993,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="23" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
@@ -5020,7 +5001,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="24" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
@@ -5028,7 +5009,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="25" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
@@ -5036,7 +5017,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="26" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
@@ -5044,7 +5025,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="27" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
@@ -5052,7 +5033,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="28" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>61</v>
       </c>
@@ -5060,7 +5041,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="29" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>63</v>
       </c>
@@ -5068,7 +5049,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="30" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>65</v>
       </c>
@@ -5076,7 +5057,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="31" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>67</v>
       </c>
@@ -5084,7 +5065,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="32" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>69</v>
       </c>
@@ -5092,7 +5073,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="33" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>71</v>
       </c>
@@ -5100,7 +5081,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="34" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>73</v>
       </c>
@@ -5108,7 +5089,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="35" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>75</v>
       </c>
@@ -5116,7 +5097,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="36" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>77</v>
       </c>
@@ -5124,7 +5105,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="37" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>79</v>
       </c>
@@ -5134,43 +5115,43 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.sulekha.com/bank-insurance-exam-coaching/chennai"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.sulekha.com/college-tuitions/chennai"/>
-    <hyperlink ref="B4" r:id="rId3" display="http://www.sulekha.com/ssb-coaching/chennai"/>
-    <hyperlink ref="B5" r:id="rId4" display="http://www.sulekha.com/sat-coaching/chennai"/>
-    <hyperlink ref="B6" r:id="rId5" display="http://www.sulekha.com/ca-coaching/chennai"/>
-    <hyperlink ref="B7" r:id="rId6" display="http://www.sulekha.com/government-exams-coaching/chennai"/>
-    <hyperlink ref="B8" r:id="rId7" display="http://www.sulekha.com/spoken-english-classes/chennai"/>
-    <hyperlink ref="B9" r:id="rId8" display="http://www.sulekha.com/home-private-tuitions/chennai"/>
-    <hyperlink ref="B10" r:id="rId9" display="http://www.sulekha.com/packers-and-movers/chennai"/>
-    <hyperlink ref="B11" r:id="rId10" display="http://www.sulekha.com/interior-designers-decorators/chennai"/>
-    <hyperlink ref="B12" r:id="rId11" display="http://www.sulekha.com/company-formation-registration-services/chennai"/>
-    <hyperlink ref="B13" r:id="rId12" display="http://www.sulekha.com/generator-dealers/chennai"/>
-    <hyperlink ref="B14" r:id="rId13" display="http://www.sulekha.com/ac-dealers/chennai"/>
-    <hyperlink ref="B15" r:id="rId14" display="http://www.sulekha.com/ac-rentals/chennai"/>
-    <hyperlink ref="B16" r:id="rId15" display="http://www.sulekha.com/ac-repair-services/chennai"/>
-    <hyperlink ref="B17" r:id="rId16" display="http://www.sulekha.com/advocates-lawyers/chennai"/>
-    <hyperlink ref="B18" r:id="rId17" display="http://www.sulekha.com/security-system-dealers/chennai"/>
-    <hyperlink ref="B19" r:id="rId18" display="http://www.sulekha.com/airport-security-guards/chennai"/>
-    <hyperlink ref="B20" r:id="rId19" display="http://www.sulekha.com/bike-rentals/chennai"/>
-    <hyperlink ref="B21" r:id="rId20" display="http://www.sulekha.com/catering-services/chennai"/>
-    <hyperlink ref="B22" r:id="rId21" display="http://www.sulekha.com/home-appliances-repair-services/chennai"/>
-    <hyperlink ref="B23" r:id="rId22" display="http://www.sulekha.com/job-training/chennai"/>
-    <hyperlink ref="B24" r:id="rId23" display="http://www.sulekha.com/building-consultants-contractors/chennai"/>
-    <hyperlink ref="B25" r:id="rId24" display="http://www.sulekha.com/personal-loans/chennai"/>
-    <hyperlink ref="B26" r:id="rId25" display="http://www.sulekha.com/web-design-services/chennai"/>
-    <hyperlink ref="B27" r:id="rId26" display="http://www.sulekha.com/mba-distance-education/chennai"/>
-    <hyperlink ref="B28" r:id="rId27" display="http://www.sulekha.com/tour-operators/chennai"/>
-    <hyperlink ref="B29" r:id="rId28" display="http://www.sulekha.com/pest-control-services/chennai"/>
-    <hyperlink ref="B30" r:id="rId29" display="http://www.sulekha.com/overseas-education-consultants/chennai"/>
-    <hyperlink ref="B31" r:id="rId30" display="http://www.sulekha.com/event-management-companies/chennai"/>
-    <hyperlink ref="B32" r:id="rId31" display="http://www.sulekha.com/computer-repair-services/chennai"/>
-    <hyperlink ref="B33" r:id="rId32" display="http://www.sulekha.com/modular-kitchen-dealers/chennai"/>
-    <hyperlink ref="B34" r:id="rId33" display="http://www.sulekha.com/water-purifier-dealers/chennai"/>
-    <hyperlink ref="B35" r:id="rId34" display="http://www.sulekha.com/domestic-help-services/chennai"/>
-    <hyperlink ref="B36" r:id="rId35" display="http://www.sulekha.com/housekeeping-services/chennai"/>
-    <hyperlink ref="B37" r:id="rId36" display="http://www.sulekha.com/ups-dealers/chennai"/>
+    <hyperlink display="http://www.sulekha.com/bank-insurance-exam-coaching/chennai" r:id="rId1" ref="B2"/>
+    <hyperlink display="http://www.sulekha.com/college-tuitions/chennai" r:id="rId2" ref="B3"/>
+    <hyperlink display="http://www.sulekha.com/ssb-coaching/chennai" r:id="rId3" ref="B4"/>
+    <hyperlink display="http://www.sulekha.com/sat-coaching/chennai" r:id="rId4" ref="B5"/>
+    <hyperlink display="http://www.sulekha.com/ca-coaching/chennai" r:id="rId5" ref="B6"/>
+    <hyperlink display="http://www.sulekha.com/government-exams-coaching/chennai" r:id="rId6" ref="B7"/>
+    <hyperlink display="http://www.sulekha.com/spoken-english-classes/chennai" r:id="rId7" ref="B8"/>
+    <hyperlink display="http://www.sulekha.com/home-private-tuitions/chennai" r:id="rId8" ref="B9"/>
+    <hyperlink display="http://www.sulekha.com/packers-and-movers/chennai" r:id="rId9" ref="B10"/>
+    <hyperlink display="http://www.sulekha.com/interior-designers-decorators/chennai" r:id="rId10" ref="B11"/>
+    <hyperlink display="http://www.sulekha.com/company-formation-registration-services/chennai" r:id="rId11" ref="B12"/>
+    <hyperlink display="http://www.sulekha.com/generator-dealers/chennai" r:id="rId12" ref="B13"/>
+    <hyperlink display="http://www.sulekha.com/ac-dealers/chennai" r:id="rId13" ref="B14"/>
+    <hyperlink display="http://www.sulekha.com/ac-rentals/chennai" r:id="rId14" ref="B15"/>
+    <hyperlink display="http://www.sulekha.com/ac-repair-services/chennai" r:id="rId15" ref="B16"/>
+    <hyperlink display="http://www.sulekha.com/advocates-lawyers/chennai" r:id="rId16" ref="B17"/>
+    <hyperlink display="http://www.sulekha.com/security-system-dealers/chennai" r:id="rId17" ref="B18"/>
+    <hyperlink display="http://www.sulekha.com/airport-security-guards/chennai" r:id="rId18" ref="B19"/>
+    <hyperlink display="http://www.sulekha.com/bike-rentals/chennai" r:id="rId19" ref="B20"/>
+    <hyperlink display="http://www.sulekha.com/catering-services/chennai" r:id="rId20" ref="B21"/>
+    <hyperlink display="http://www.sulekha.com/home-appliances-repair-services/chennai" r:id="rId21" ref="B22"/>
+    <hyperlink display="http://www.sulekha.com/job-training/chennai" r:id="rId22" ref="B23"/>
+    <hyperlink display="http://www.sulekha.com/building-consultants-contractors/chennai" r:id="rId23" ref="B24"/>
+    <hyperlink display="http://www.sulekha.com/personal-loans/chennai" r:id="rId24" ref="B25"/>
+    <hyperlink display="http://www.sulekha.com/web-design-services/chennai" r:id="rId25" ref="B26"/>
+    <hyperlink display="http://www.sulekha.com/mba-distance-education/chennai" r:id="rId26" ref="B27"/>
+    <hyperlink display="http://www.sulekha.com/tour-operators/chennai" r:id="rId27" ref="B28"/>
+    <hyperlink display="http://www.sulekha.com/pest-control-services/chennai" r:id="rId28" ref="B29"/>
+    <hyperlink display="http://www.sulekha.com/overseas-education-consultants/chennai" r:id="rId29" ref="B30"/>
+    <hyperlink display="http://www.sulekha.com/event-management-companies/chennai" r:id="rId30" ref="B31"/>
+    <hyperlink display="http://www.sulekha.com/computer-repair-services/chennai" r:id="rId31" ref="B32"/>
+    <hyperlink display="http://www.sulekha.com/modular-kitchen-dealers/chennai" r:id="rId32" ref="B33"/>
+    <hyperlink display="http://www.sulekha.com/water-purifier-dealers/chennai" r:id="rId33" ref="B34"/>
+    <hyperlink display="http://www.sulekha.com/domestic-help-services/chennai" r:id="rId34" ref="B35"/>
+    <hyperlink display="http://www.sulekha.com/housekeeping-services/chennai" r:id="rId35" ref="B36"/>
+    <hyperlink display="http://www.sulekha.com/ups-dealers/chennai" r:id="rId36" ref="B37"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>